--- a/T1 ag dems.xlsx
+++ b/T1 ag dems.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ushouse-my.sharepoint.com/personal/thomas_newberry_mail_house_gov/Documents/Justin Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.newberry\Documents\tittle_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D986F528-BFA4-4688-898B-B2884EE75024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EAB59E-4D4D-4BBC-A50E-551E09F3BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33105" yWindow="4500" windowWidth="21060" windowHeight="11580" activeTab="1" xr2:uid="{6D5A6271-3E3D-4877-9EAC-F3F2E3535283}"/>
+    <workbookView xWindow="33105" yWindow="4500" windowWidth="21060" windowHeight="11580" xr2:uid="{6D5A6271-3E3D-4877-9EAC-F3F2E3535283}"/>
   </bookViews>
   <sheets>
-    <sheet name="REP" sheetId="2" r:id="rId1"/>
-    <sheet name="DEM" sheetId="1" r:id="rId2"/>
+    <sheet name="DEM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,177 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
-  <si>
-    <t>Alford</t>
-  </si>
-  <si>
-    <t>Bacon</t>
-  </si>
-  <si>
-    <t>Baird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bost </t>
-  </si>
-  <si>
-    <t>Cammack</t>
-  </si>
-  <si>
-    <t>Chavez-DeRemer</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>De La Cruz</t>
-  </si>
-  <si>
-    <t>DesJarlais</t>
-  </si>
-  <si>
-    <t>Duarte</t>
-  </si>
-  <si>
-    <t>Feenstra</t>
-  </si>
-  <si>
-    <t>Finstad</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Jackson</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>LaMalfa</t>
-  </si>
-  <si>
-    <t>Langworthy</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Molinaro</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>Nunn</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Rouzer</t>
-  </si>
-  <si>
     <t>Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Orden </t>
-  </si>
-  <si>
-    <t>Member:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture LA/Contact Email: </t>
-  </si>
-  <si>
-    <t>madelyn.derks@mail.house.gov</t>
-  </si>
-  <si>
-    <t>jaydn.smith@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Lauryn.adams@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Lacey.Bowersox@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Christina.Lassiter@mail.house.gov</t>
-  </si>
-  <si>
-    <t>joe.macfarlane@mail.house.gov</t>
-  </si>
-  <si>
-    <t>truman.reed@mail.house.gov</t>
-  </si>
-  <si>
-    <t>hannah.russell@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Josh.Millard@mail.house.gov</t>
-  </si>
-  <si>
-    <t>john.altendorf@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Stetson.Bryson@mail.house.gov</t>
-  </si>
-  <si>
-    <t>chance.hunley@mail.house.gov</t>
-  </si>
-  <si>
-    <t>semaj.redd@mail.house.gov</t>
-  </si>
-  <si>
-    <t>alexandra.lavy@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Allen.Garnes@mail.house.gov</t>
-  </si>
-  <si>
-    <t>alison.slagell@mail.house.gov</t>
-  </si>
-  <si>
-    <t>riley.pagett@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Karen.Williams@mail.house.gov</t>
-  </si>
-  <si>
-    <t>janey.green@mail.house.gov</t>
-  </si>
-  <si>
-    <t>tyler.gutchess@mail.house.gov</t>
-  </si>
-  <si>
-    <t>samantha.barnett@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Madeline.Dwelle@mail.house.gov</t>
-  </si>
-  <si>
-    <t>joseph.whiteiii@mail.house.gov</t>
-  </si>
-  <si>
-    <t>zach.roberts@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Claire.Osborn@mail.house.gov</t>
-  </si>
-  <si>
-    <t>Danna.Almeida@mail.house.gov</t>
-  </si>
-  <si>
-    <t>josh.jamison@mail.house.gov</t>
-  </si>
-  <si>
-    <t>jason.kroitor@mail.house.gov</t>
   </si>
   <si>
     <t>Member</t>
@@ -439,18 +273,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,23 +294,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,20 +308,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -546,55 +345,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,272 +676,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8878CF6-A7CE-4CA0-8014-5F49F3039352}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{8D95F2E9-AEA4-469E-82CE-C3D8AC41ACA0}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{B803AFCD-079E-4359-BF88-3D98AA3A9F67}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{2BCB42D0-FA17-4C84-9DA0-E6857F2F8089}"/>
-    <hyperlink ref="B5" r:id="rId4" display="mailto:Lacey.Bowersox@mail.house.gov" xr:uid="{EB376A9F-4C57-4E93-A6DD-EB0FA2B0F197}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{A0396D8F-AEB2-471A-A2D7-C6DABB6DF072}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{0B8CCA0D-7882-4DBF-A833-BB78DE41BAFE}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{470C58E4-12C3-4D7F-A36E-28172462A361}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{6D571946-E958-418F-B366-FAA042398838}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{A2885679-78DD-49EE-8321-62BE69EECAFE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89C4EA9-2C29-4985-9B45-BB50AAF939AD}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1182,288 +690,288 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
